--- a/Code/Results/Cases/Case_4_198/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_198/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9813850872749302</v>
+        <v>1.026080828941316</v>
       </c>
       <c r="D2">
-        <v>1.002660690867821</v>
+        <v>1.029432941799755</v>
       </c>
       <c r="E2">
-        <v>0.9896921155211086</v>
+        <v>1.029709536245137</v>
       </c>
       <c r="F2">
-        <v>0.9906608147371077</v>
+        <v>1.035662765503488</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03536591176786</v>
+        <v>1.030734286204386</v>
       </c>
       <c r="J2">
-        <v>1.004137189058117</v>
+        <v>1.031246262710298</v>
       </c>
       <c r="K2">
-        <v>1.014083082081938</v>
+        <v>1.032246867966284</v>
       </c>
       <c r="L2">
-        <v>1.001296948354593</v>
+        <v>1.032522659778654</v>
       </c>
       <c r="M2">
-        <v>1.002251811073722</v>
+        <v>1.038458726611105</v>
       </c>
       <c r="N2">
-        <v>1.00466164466352</v>
+        <v>1.014325558436712</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9879934689072459</v>
+        <v>1.027406892461928</v>
       </c>
       <c r="D3">
-        <v>1.007360626797781</v>
+        <v>1.03038500118079</v>
       </c>
       <c r="E3">
-        <v>0.9957600682075675</v>
+        <v>1.030983780672548</v>
       </c>
       <c r="F3">
-        <v>0.9976291921549285</v>
+        <v>1.037124521082735</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037091728950188</v>
+        <v>1.031000977895484</v>
       </c>
       <c r="J3">
-        <v>1.008816882953828</v>
+        <v>1.032209994537634</v>
       </c>
       <c r="K3">
-        <v>1.017900185425523</v>
+        <v>1.033006684220129</v>
       </c>
       <c r="L3">
-        <v>1.006447488765155</v>
+        <v>1.033603853017924</v>
       </c>
       <c r="M3">
-        <v>1.008292498059512</v>
+        <v>1.039728191114787</v>
       </c>
       <c r="N3">
-        <v>1.006298444085916</v>
+        <v>1.014655009853402</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9921493747027594</v>
+        <v>1.028264018477896</v>
       </c>
       <c r="D4">
-        <v>1.010319020373212</v>
+        <v>1.031000082699094</v>
       </c>
       <c r="E4">
-        <v>0.9995823040809116</v>
+        <v>1.031807763777968</v>
       </c>
       <c r="F4">
-        <v>1.002014807740647</v>
+        <v>1.038069597556168</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038164736355344</v>
+        <v>1.031171759026243</v>
       </c>
       <c r="J4">
-        <v>1.011756054753347</v>
+        <v>1.032832248903379</v>
       </c>
       <c r="K4">
-        <v>1.020294479030966</v>
+        <v>1.033496757783729</v>
       </c>
       <c r="L4">
-        <v>1.009685772939892</v>
+        <v>1.034302376647009</v>
       </c>
       <c r="M4">
-        <v>1.012088976481232</v>
+        <v>1.040548339696167</v>
       </c>
       <c r="N4">
-        <v>1.007325348250503</v>
+        <v>1.014867467759454</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9938692454648955</v>
+        <v>1.028624137326776</v>
       </c>
       <c r="D5">
-        <v>1.011543846901384</v>
+        <v>1.031258434404268</v>
       </c>
       <c r="E5">
-        <v>1.001165511634953</v>
+        <v>1.032154041265391</v>
       </c>
       <c r="F5">
-        <v>1.003830535071164</v>
+        <v>1.038466727102832</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038605769308587</v>
+        <v>1.031243128766361</v>
       </c>
       <c r="J5">
-        <v>1.012971422932771</v>
+        <v>1.033093525914171</v>
       </c>
       <c r="K5">
-        <v>1.021283758780697</v>
+        <v>1.033702409161418</v>
       </c>
       <c r="L5">
-        <v>1.011025642659098</v>
+        <v>1.034595780699788</v>
       </c>
       <c r="M5">
-        <v>1.013659502044757</v>
+        <v>1.040892828547104</v>
       </c>
       <c r="N5">
-        <v>1.007749694831603</v>
+        <v>1.014956613837086</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9941564613927633</v>
+        <v>1.028684590281532</v>
       </c>
       <c r="D6">
-        <v>1.011748419302943</v>
+        <v>1.031301799457286</v>
       </c>
       <c r="E6">
-        <v>1.001429986824577</v>
+        <v>1.032212175560042</v>
       </c>
       <c r="F6">
-        <v>1.004133805563472</v>
+        <v>1.038533396468339</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038679242004447</v>
+        <v>1.031255087069286</v>
       </c>
       <c r="J6">
-        <v>1.013174328882715</v>
+        <v>1.033137376875558</v>
       </c>
       <c r="K6">
-        <v>1.021448872618848</v>
+        <v>1.033736916977276</v>
       </c>
       <c r="L6">
-        <v>1.011249382295753</v>
+        <v>1.034645029661135</v>
       </c>
       <c r="M6">
-        <v>1.013921741611051</v>
+        <v>1.040950652192914</v>
       </c>
       <c r="N6">
-        <v>1.007820522299156</v>
+        <v>1.014971571842474</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9921724609698825</v>
+        <v>1.028268831250128</v>
       </c>
       <c r="D7">
-        <v>1.010335459573479</v>
+        <v>1.031003535702424</v>
       </c>
       <c r="E7">
-        <v>0.9996035503387942</v>
+        <v>1.031812391241135</v>
       </c>
       <c r="F7">
-        <v>1.002039177575215</v>
+        <v>1.038074904723501</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038170668472156</v>
+        <v>1.031172714347431</v>
       </c>
       <c r="J7">
-        <v>1.011772372872444</v>
+        <v>1.032835741348035</v>
       </c>
       <c r="K7">
-        <v>1.020307764695108</v>
+        <v>1.033499507180297</v>
       </c>
       <c r="L7">
-        <v>1.009703759440091</v>
+        <v>1.034306298125142</v>
       </c>
       <c r="M7">
-        <v>1.012110060453525</v>
+        <v>1.040552943952261</v>
       </c>
       <c r="N7">
-        <v>1.007331046884335</v>
+        <v>1.014868659605334</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9836442379475494</v>
+        <v>1.026529172833983</v>
       </c>
       <c r="D8">
-        <v>1.004266782317788</v>
+        <v>1.029754895865943</v>
       </c>
       <c r="E8">
-        <v>0.9917651664445217</v>
+        <v>1.030140286883499</v>
       </c>
       <c r="F8">
-        <v>0.9930423346367143</v>
+        <v>1.036156936838686</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035958464746606</v>
+        <v>1.030824786351502</v>
       </c>
       <c r="J8">
-        <v>1.005737763546501</v>
+        <v>1.031572240707298</v>
       </c>
       <c r="K8">
-        <v>1.015389265861192</v>
+        <v>1.032503979633974</v>
       </c>
       <c r="L8">
-        <v>1.003057851429313</v>
+        <v>1.032888279936165</v>
       </c>
       <c r="M8">
-        <v>1.00431738410313</v>
+        <v>1.038888015968032</v>
       </c>
       <c r="N8">
-        <v>1.005221697300225</v>
+        <v>1.014437047572193</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9676222781246384</v>
+        <v>1.023456371203236</v>
       </c>
       <c r="D9">
-        <v>0.9928929143474082</v>
+        <v>1.027547139235124</v>
       </c>
       <c r="E9">
-        <v>0.9770927323921307</v>
+        <v>1.027189530032637</v>
       </c>
       <c r="F9">
-        <v>0.9761668631590824</v>
+        <v>1.03277103602332</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031705486640802</v>
+        <v>1.030197968133543</v>
       </c>
       <c r="J9">
-        <v>0.9943725690326808</v>
+        <v>1.029335350755811</v>
       </c>
       <c r="K9">
-        <v>1.006102361186682</v>
+        <v>1.030737540158177</v>
       </c>
       <c r="L9">
-        <v>0.9905687294535938</v>
+        <v>1.030381119127288</v>
       </c>
       <c r="M9">
-        <v>0.9896588258490724</v>
+        <v>1.035944183200685</v>
       </c>
       <c r="N9">
-        <v>1.001240838188927</v>
+        <v>1.013670940994407</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9561572390036124</v>
+        <v>1.021402630717923</v>
       </c>
       <c r="D10">
-        <v>0.9847813991165909</v>
+        <v>1.026070111814781</v>
       </c>
       <c r="E10">
-        <v>0.9666351718286489</v>
+        <v>1.025219226595167</v>
       </c>
       <c r="F10">
-        <v>0.9641094501538614</v>
+        <v>1.03050925897561</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028600437297634</v>
+        <v>1.029770798453171</v>
       </c>
       <c r="J10">
-        <v>0.9862251999053969</v>
+        <v>1.027836869735381</v>
       </c>
       <c r="K10">
-        <v>0.9994309762886882</v>
+        <v>1.029551567955509</v>
       </c>
       <c r="L10">
-        <v>0.9816341525806144</v>
+        <v>1.028703791045571</v>
       </c>
       <c r="M10">
-        <v>0.9791584340892466</v>
+        <v>1.033974590714848</v>
       </c>
       <c r="N10">
-        <v>0.9983827048929876</v>
+        <v>1.013156410052118</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9509769581204178</v>
+        <v>1.02051203687685</v>
       </c>
       <c r="D11">
-        <v>0.9811250796420632</v>
+        <v>1.025429277217638</v>
       </c>
       <c r="E11">
-        <v>0.9619213861733517</v>
+        <v>1.024365265469818</v>
       </c>
       <c r="F11">
-        <v>0.9586658850283549</v>
+        <v>1.029528737784798</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027183878876679</v>
+        <v>1.029583611119971</v>
       </c>
       <c r="J11">
-        <v>0.9825415871740284</v>
+        <v>1.02718625266947</v>
       </c>
       <c r="K11">
-        <v>0.9964119490660123</v>
+        <v>1.029036015710176</v>
       </c>
       <c r="L11">
-        <v>0.9775990019562403</v>
+        <v>1.027976043690221</v>
       </c>
       <c r="M11">
-        <v>0.9744117958102515</v>
+        <v>1.03311999834682</v>
       </c>
       <c r="N11">
-        <v>0.9970897381500252</v>
+        <v>1.0129326988663</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.949017420543232</v>
+        <v>1.020181027924973</v>
       </c>
       <c r="D12">
-        <v>0.9797435296289552</v>
+        <v>1.025191048543188</v>
       </c>
       <c r="E12">
-        <v>0.960140134154467</v>
+        <v>1.024047940248948</v>
       </c>
       <c r="F12">
-        <v>0.9566074105536964</v>
+        <v>1.029164348036651</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02664609538402</v>
+        <v>1.029513746562614</v>
       </c>
       <c r="J12">
-        <v>0.9811479421965063</v>
+        <v>1.026944315357003</v>
       </c>
       <c r="K12">
-        <v>0.9952693807929029</v>
+        <v>1.028844210409825</v>
       </c>
       <c r="L12">
-        <v>0.9760730141303674</v>
+        <v>1.027705503248165</v>
       </c>
       <c r="M12">
-        <v>0.9726159947997426</v>
+        <v>1.032802296460576</v>
       </c>
       <c r="N12">
-        <v>0.9966004781925105</v>
+        <v>1.012849463727906</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9494393985874178</v>
+        <v>1.020252039737502</v>
       </c>
       <c r="D13">
-        <v>0.9800409683056914</v>
+        <v>1.025242158238827</v>
       </c>
       <c r="E13">
-        <v>0.9605236345626309</v>
+        <v>1.024116013367368</v>
       </c>
       <c r="F13">
-        <v>0.95705066469615</v>
+        <v>1.02924251915189</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026761990830048</v>
+        <v>1.029528747921034</v>
       </c>
       <c r="J13">
-        <v>0.9814480671723007</v>
+        <v>1.026996223976782</v>
       </c>
       <c r="K13">
-        <v>0.9955154511505382</v>
+        <v>1.028885367204195</v>
       </c>
       <c r="L13">
-        <v>0.9764016098386554</v>
+        <v>1.027763545237705</v>
       </c>
       <c r="M13">
-        <v>0.9730027256593033</v>
+        <v>1.032870456827376</v>
       </c>
       <c r="N13">
-        <v>0.9967058448696052</v>
+        <v>1.012867324250622</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9508157214629404</v>
+        <v>1.020484679743449</v>
       </c>
       <c r="D14">
-        <v>0.9810113694237822</v>
+        <v>1.025409589140001</v>
       </c>
       <c r="E14">
-        <v>0.9617747815789095</v>
+        <v>1.024339037867246</v>
       </c>
       <c r="F14">
-        <v>0.9584964942672496</v>
+        <v>1.029498620936139</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027139667259757</v>
+        <v>1.02957784293227</v>
       </c>
       <c r="J14">
-        <v>0.9824269182935812</v>
+        <v>1.027166259569935</v>
       </c>
       <c r="K14">
-        <v>0.996317945729796</v>
+        <v>1.029020167288834</v>
       </c>
       <c r="L14">
-        <v>0.9774734306111755</v>
+        <v>1.027953685300524</v>
       </c>
       <c r="M14">
-        <v>0.9742640376924808</v>
+        <v>1.033093742516097</v>
       </c>
       <c r="N14">
-        <v>0.9970494834490691</v>
+        <v>1.012925821463369</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9516589415605698</v>
+        <v>1.020627989888317</v>
       </c>
       <c r="D15">
-        <v>0.9816061033991834</v>
+        <v>1.025512723022136</v>
       </c>
       <c r="E15">
-        <v>0.9625415553053908</v>
+        <v>1.024476433776188</v>
       </c>
       <c r="F15">
-        <v>0.959382384544481</v>
+        <v>1.029656389575331</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027370802542737</v>
+        <v>1.029608047579119</v>
       </c>
       <c r="J15">
-        <v>0.9830265931610729</v>
+        <v>1.0272709883233</v>
       </c>
       <c r="K15">
-        <v>0.9968095332929247</v>
+        <v>1.029103181400095</v>
       </c>
       <c r="L15">
-        <v>0.9781301479371266</v>
+        <v>1.028070807232188</v>
       </c>
       <c r="M15">
-        <v>0.9750367571649686</v>
+        <v>1.033231280476875</v>
       </c>
       <c r="N15">
-        <v>0.9972599970815911</v>
+        <v>1.012961845091423</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9564962481925973</v>
+        <v>1.02146170838683</v>
       </c>
       <c r="D16">
-        <v>0.9850208747576379</v>
+        <v>1.026112614835761</v>
       </c>
       <c r="E16">
-        <v>0.9669438967871188</v>
+        <v>1.025275883773789</v>
       </c>
       <c r="F16">
-        <v>0.9644657796695543</v>
+        <v>1.030574307992302</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028692866617928</v>
+        <v>1.029783174574582</v>
       </c>
       <c r="J16">
-        <v>0.9864662234301141</v>
+        <v>1.027880011521332</v>
       </c>
       <c r="K16">
-        <v>0.99962846261563</v>
+        <v>1.029585740678763</v>
       </c>
       <c r="L16">
-        <v>0.9818982682201665</v>
+        <v>1.028752058253132</v>
       </c>
       <c r="M16">
-        <v>0.9794690218089881</v>
+        <v>1.034031269907131</v>
       </c>
       <c r="N16">
-        <v>0.9984672923373354</v>
+        <v>1.013171237624277</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9594708212878498</v>
+        <v>1.021984322965797</v>
       </c>
       <c r="D17">
-        <v>0.9871231182262729</v>
+        <v>1.026488568416201</v>
       </c>
       <c r="E17">
-        <v>0.9696540350227282</v>
+        <v>1.025777138247396</v>
       </c>
       <c r="F17">
-        <v>0.9675928202598276</v>
+        <v>1.031149779520702</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029502346209406</v>
+        <v>1.029892431821171</v>
       </c>
       <c r="J17">
-        <v>0.9885807841819129</v>
+        <v>1.028261560347926</v>
       </c>
       <c r="K17">
-        <v>1.00136075679499</v>
+        <v>1.029887894862435</v>
       </c>
       <c r="L17">
-        <v>0.9842159159518392</v>
+        <v>1.029178996894456</v>
       </c>
       <c r="M17">
-        <v>0.9821939697530866</v>
+        <v>1.034532610552387</v>
       </c>
       <c r="N17">
-        <v>0.9992093192126712</v>
+        <v>1.013302337944791</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9611852290165023</v>
+        <v>1.022289029144944</v>
       </c>
       <c r="D18">
-        <v>0.988335561490992</v>
+        <v>1.026707733261433</v>
       </c>
       <c r="E18">
-        <v>0.9712170866696029</v>
+        <v>1.026069433992122</v>
       </c>
       <c r="F18">
-        <v>0.9693955143712532</v>
+        <v>1.031485331169291</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029967607808741</v>
+        <v>1.029955945612194</v>
       </c>
       <c r="J18">
-        <v>0.9897992905274416</v>
+        <v>1.028483941309394</v>
       </c>
       <c r="K18">
-        <v>1.002358722480837</v>
+        <v>1.030063941738053</v>
       </c>
       <c r="L18">
-        <v>0.9855518617827271</v>
+        <v>1.029427883060864</v>
       </c>
       <c r="M18">
-        <v>0.9837642940126974</v>
+        <v>1.034824866025907</v>
       </c>
       <c r="N18">
-        <v>0.9996368375806493</v>
+        <v>1.01337871825806</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9617663849113265</v>
+        <v>1.022392904870889</v>
       </c>
       <c r="D19">
-        <v>0.9887466906406673</v>
+        <v>1.026782442120987</v>
       </c>
       <c r="E19">
-        <v>0.9717471101876194</v>
+        <v>1.026169086285939</v>
       </c>
       <c r="F19">
-        <v>0.9700066676405743</v>
+        <v>1.031599726958179</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030125102984721</v>
+        <v>1.029977565895747</v>
       </c>
       <c r="J19">
-        <v>0.9902123021428386</v>
+        <v>1.0285597387537</v>
       </c>
       <c r="K19">
-        <v>1.002696936272439</v>
+        <v>1.030123936264366</v>
       </c>
       <c r="L19">
-        <v>0.9860047492400292</v>
+        <v>1.029512723209502</v>
       </c>
       <c r="M19">
-        <v>0.984296571181084</v>
+        <v>1.03492448926563</v>
       </c>
       <c r="N19">
-        <v>0.9997817316558012</v>
+        <v>1.013404747033507</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.959153829566841</v>
+        <v>1.021928264450479</v>
       </c>
       <c r="D20">
-        <v>0.9868990029610256</v>
+        <v>1.026448244850862</v>
       </c>
       <c r="E20">
-        <v>0.9693651131693217</v>
+        <v>1.025723366439714</v>
       </c>
       <c r="F20">
-        <v>0.9672595378018399</v>
+        <v>1.031088048419837</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029416215185126</v>
+        <v>1.029880731709211</v>
       </c>
       <c r="J20">
-        <v>0.9883554646602751</v>
+        <v>1.028220641385284</v>
       </c>
       <c r="K20">
-        <v>1.001176196935327</v>
+        <v>1.029855496723666</v>
       </c>
       <c r="L20">
-        <v>0.98396891350107</v>
+        <v>1.029133204923984</v>
       </c>
       <c r="M20">
-        <v>0.9819036015424413</v>
+        <v>1.03447883887178</v>
       </c>
       <c r="N20">
-        <v>0.9991302588888801</v>
+        <v>1.013288281262304</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9504114298174886</v>
+        <v>1.020416178703898</v>
       </c>
       <c r="D21">
-        <v>0.9807262727962871</v>
+        <v>1.025360290297604</v>
       </c>
       <c r="E21">
-        <v>0.9614072088061011</v>
+        <v>1.024273366228967</v>
       </c>
       <c r="F21">
-        <v>0.9580717672069207</v>
+        <v>1.029423210381289</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027028778261027</v>
+        <v>1.029563394929127</v>
       </c>
       <c r="J21">
-        <v>0.9821393890268251</v>
+        <v>1.027116195788401</v>
       </c>
       <c r="K21">
-        <v>0.9960822291733088</v>
+        <v>1.028980480501613</v>
       </c>
       <c r="L21">
-        <v>0.9771585742546869</v>
+        <v>1.027897699972962</v>
       </c>
       <c r="M21">
-        <v>0.973893538065015</v>
+        <v>1.033027997898366</v>
       </c>
       <c r="N21">
-        <v>0.9969485445765859</v>
+        <v>1.012908599334989</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.944708484309651</v>
+        <v>1.019464294442566</v>
       </c>
       <c r="D22">
-        <v>0.9767086172419713</v>
+        <v>1.024675125130621</v>
       </c>
       <c r="E22">
-        <v>0.9562267620545489</v>
+        <v>1.023360961922453</v>
       </c>
       <c r="F22">
-        <v>0.9520821222092007</v>
+        <v>1.028375412836066</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025460064817325</v>
+        <v>1.029361934720495</v>
       </c>
       <c r="J22">
-        <v>0.9780830434653561</v>
+        <v>1.026420227692544</v>
       </c>
       <c r="K22">
-        <v>0.9927560455041911</v>
+        <v>1.02842854975687</v>
       </c>
       <c r="L22">
-        <v>0.9727182784565206</v>
+        <v>1.027119598495176</v>
       </c>
       <c r="M22">
-        <v>0.9686666032452899</v>
+        <v>1.032114241730421</v>
       </c>
       <c r="N22">
-        <v>0.9955243778116381</v>
+        <v>1.012669074311691</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9477523479168553</v>
+        <v>1.019969019721255</v>
       </c>
       <c r="D23">
-        <v>0.9788520610183614</v>
+        <v>1.025038451814139</v>
       </c>
       <c r="E23">
-        <v>0.9589906941643817</v>
+        <v>1.023844715679378</v>
       </c>
       <c r="F23">
-        <v>0.9552786489342715</v>
+        <v>1.028930971713094</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026298368778347</v>
+        <v>1.029468916727118</v>
       </c>
       <c r="J23">
-        <v>0.9802481520420789</v>
+        <v>1.026789322698519</v>
       </c>
       <c r="K23">
-        <v>0.9945316005770508</v>
+        <v>1.028721307781661</v>
       </c>
       <c r="L23">
-        <v>0.975087963489371</v>
+        <v>1.027532208589167</v>
       </c>
       <c r="M23">
-        <v>0.9714565512075632</v>
+        <v>1.032598790538993</v>
       </c>
       <c r="N23">
-        <v>0.9962845734515633</v>
+        <v>1.012796127678123</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9592971279566757</v>
+        <v>1.021953595269682</v>
       </c>
       <c r="D24">
-        <v>0.9870003133912664</v>
+        <v>1.026466465712765</v>
       </c>
       <c r="E24">
-        <v>0.969495719115442</v>
+        <v>1.025747663844249</v>
       </c>
       <c r="F24">
-        <v>0.9674101992597584</v>
+        <v>1.031115942390134</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029455155334247</v>
+        <v>1.02988601914769</v>
       </c>
       <c r="J24">
-        <v>0.9884573226933548</v>
+        <v>1.028239131428248</v>
       </c>
       <c r="K24">
-        <v>1.00125962995452</v>
+        <v>1.02987013664898</v>
       </c>
       <c r="L24">
-        <v>0.9840805722495236</v>
+        <v>1.02915389677643</v>
       </c>
       <c r="M24">
-        <v>0.9820348652406343</v>
+        <v>1.034503136498494</v>
       </c>
       <c r="N24">
-        <v>0.999165999154169</v>
+        <v>1.013294633144789</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9718932707974879</v>
+        <v>1.024251659800803</v>
       </c>
       <c r="D25">
-        <v>0.9959208527790413</v>
+        <v>1.028118800783787</v>
       </c>
       <c r="E25">
-        <v>0.9809972686139605</v>
+        <v>1.027952905479923</v>
       </c>
       <c r="F25">
-        <v>0.9806622491100029</v>
+        <v>1.033647142116169</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032850039206612</v>
+        <v>1.030361648579983</v>
       </c>
       <c r="J25">
-        <v>0.9974050290484829</v>
+        <v>1.029914898330228</v>
       </c>
       <c r="K25">
-        <v>1.008582824030035</v>
+        <v>1.031195667189274</v>
       </c>
       <c r="L25">
-        <v>0.9938979188598025</v>
+        <v>1.031030301898483</v>
       </c>
       <c r="M25">
-        <v>0.9935683645897126</v>
+        <v>1.036706452626415</v>
       </c>
       <c r="N25">
-        <v>1.002303847047272</v>
+        <v>1.013869661983548</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_198/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_198/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026080828941316</v>
+        <v>0.9813850872749308</v>
       </c>
       <c r="D2">
-        <v>1.029432941799755</v>
+        <v>1.002660690867822</v>
       </c>
       <c r="E2">
-        <v>1.029709536245137</v>
+        <v>0.9896921155211095</v>
       </c>
       <c r="F2">
-        <v>1.035662765503488</v>
+        <v>0.9906608147371079</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030734286204386</v>
+        <v>1.03536591176786</v>
       </c>
       <c r="J2">
-        <v>1.031246262710298</v>
+        <v>1.004137189058118</v>
       </c>
       <c r="K2">
-        <v>1.032246867966284</v>
+        <v>1.014083082081938</v>
       </c>
       <c r="L2">
-        <v>1.032522659778654</v>
+        <v>1.001296948354593</v>
       </c>
       <c r="M2">
-        <v>1.038458726611105</v>
+        <v>1.002251811073722</v>
       </c>
       <c r="N2">
-        <v>1.014325558436712</v>
+        <v>1.00466164466352</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027406892461928</v>
+        <v>0.9879934689072459</v>
       </c>
       <c r="D3">
-        <v>1.03038500118079</v>
+        <v>1.007360626797781</v>
       </c>
       <c r="E3">
-        <v>1.030983780672548</v>
+        <v>0.995760068207567</v>
       </c>
       <c r="F3">
-        <v>1.037124521082735</v>
+        <v>0.9976291921549284</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031000977895484</v>
+        <v>1.037091728950188</v>
       </c>
       <c r="J3">
-        <v>1.032209994537634</v>
+        <v>1.008816882953828</v>
       </c>
       <c r="K3">
-        <v>1.033006684220129</v>
+        <v>1.017900185425523</v>
       </c>
       <c r="L3">
-        <v>1.033603853017924</v>
+        <v>1.006447488765154</v>
       </c>
       <c r="M3">
-        <v>1.039728191114787</v>
+        <v>1.008292498059512</v>
       </c>
       <c r="N3">
-        <v>1.014655009853402</v>
+        <v>1.006298444085916</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028264018477896</v>
+        <v>0.9921493747027601</v>
       </c>
       <c r="D4">
-        <v>1.031000082699094</v>
+        <v>1.010319020373213</v>
       </c>
       <c r="E4">
-        <v>1.031807763777968</v>
+        <v>0.9995823040809125</v>
       </c>
       <c r="F4">
-        <v>1.038069597556168</v>
+        <v>1.002014807740647</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031171759026243</v>
+        <v>1.038164736355345</v>
       </c>
       <c r="J4">
-        <v>1.032832248903379</v>
+        <v>1.011756054753348</v>
       </c>
       <c r="K4">
-        <v>1.033496757783729</v>
+        <v>1.020294479030966</v>
       </c>
       <c r="L4">
-        <v>1.034302376647009</v>
+        <v>1.009685772939893</v>
       </c>
       <c r="M4">
-        <v>1.040548339696167</v>
+        <v>1.012088976481233</v>
       </c>
       <c r="N4">
-        <v>1.014867467759454</v>
+        <v>1.007325348250503</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028624137326776</v>
+        <v>0.9938692454648956</v>
       </c>
       <c r="D5">
-        <v>1.031258434404268</v>
+        <v>1.011543846901384</v>
       </c>
       <c r="E5">
-        <v>1.032154041265391</v>
+        <v>1.001165511634953</v>
       </c>
       <c r="F5">
-        <v>1.038466727102832</v>
+        <v>1.003830535071164</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031243128766361</v>
+        <v>1.038605769308587</v>
       </c>
       <c r="J5">
-        <v>1.033093525914171</v>
+        <v>1.012971422932771</v>
       </c>
       <c r="K5">
-        <v>1.033702409161418</v>
+        <v>1.021283758780697</v>
       </c>
       <c r="L5">
-        <v>1.034595780699788</v>
+        <v>1.011025642659098</v>
       </c>
       <c r="M5">
-        <v>1.040892828547104</v>
+        <v>1.013659502044757</v>
       </c>
       <c r="N5">
-        <v>1.014956613837086</v>
+        <v>1.007749694831603</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028684590281532</v>
+        <v>0.9941564613927628</v>
       </c>
       <c r="D6">
-        <v>1.031301799457286</v>
+        <v>1.011748419302943</v>
       </c>
       <c r="E6">
-        <v>1.032212175560042</v>
+        <v>1.001429986824576</v>
       </c>
       <c r="F6">
-        <v>1.038533396468339</v>
+        <v>1.004133805563471</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031255087069286</v>
+        <v>1.038679242004447</v>
       </c>
       <c r="J6">
-        <v>1.033137376875558</v>
+        <v>1.013174328882715</v>
       </c>
       <c r="K6">
-        <v>1.033736916977276</v>
+        <v>1.021448872618847</v>
       </c>
       <c r="L6">
-        <v>1.034645029661135</v>
+        <v>1.011249382295752</v>
       </c>
       <c r="M6">
-        <v>1.040950652192914</v>
+        <v>1.01392174161105</v>
       </c>
       <c r="N6">
-        <v>1.014971571842474</v>
+        <v>1.007820522299156</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028268831250128</v>
+        <v>0.9921724609698827</v>
       </c>
       <c r="D7">
-        <v>1.031003535702424</v>
+        <v>1.010335459573478</v>
       </c>
       <c r="E7">
-        <v>1.031812391241135</v>
+        <v>0.9996035503387939</v>
       </c>
       <c r="F7">
-        <v>1.038074904723501</v>
+        <v>1.002039177575215</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031172714347431</v>
+        <v>1.038170668472156</v>
       </c>
       <c r="J7">
-        <v>1.032835741348035</v>
+        <v>1.011772372872444</v>
       </c>
       <c r="K7">
-        <v>1.033499507180297</v>
+        <v>1.020307764695108</v>
       </c>
       <c r="L7">
-        <v>1.034306298125142</v>
+        <v>1.009703759440091</v>
       </c>
       <c r="M7">
-        <v>1.040552943952261</v>
+        <v>1.012110060453525</v>
       </c>
       <c r="N7">
-        <v>1.014868659605334</v>
+        <v>1.007331046884335</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.026529172833983</v>
+        <v>0.9836442379475487</v>
       </c>
       <c r="D8">
-        <v>1.029754895865943</v>
+        <v>1.004266782317788</v>
       </c>
       <c r="E8">
-        <v>1.030140286883499</v>
+        <v>0.9917651664445212</v>
       </c>
       <c r="F8">
-        <v>1.036156936838686</v>
+        <v>0.9930423346367137</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030824786351502</v>
+        <v>1.035958464746606</v>
       </c>
       <c r="J8">
-        <v>1.031572240707298</v>
+        <v>1.0057377635465</v>
       </c>
       <c r="K8">
-        <v>1.032503979633974</v>
+        <v>1.015389265861192</v>
       </c>
       <c r="L8">
-        <v>1.032888279936165</v>
+        <v>1.003057851429312</v>
       </c>
       <c r="M8">
-        <v>1.038888015968032</v>
+        <v>1.004317384103129</v>
       </c>
       <c r="N8">
-        <v>1.014437047572193</v>
+        <v>1.005221697300225</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.023456371203236</v>
+        <v>0.9676222781246396</v>
       </c>
       <c r="D9">
-        <v>1.027547139235124</v>
+        <v>0.9928929143474088</v>
       </c>
       <c r="E9">
-        <v>1.027189530032637</v>
+        <v>0.977092732392132</v>
       </c>
       <c r="F9">
-        <v>1.03277103602332</v>
+        <v>0.9761668631590832</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030197968133543</v>
+        <v>1.031705486640803</v>
       </c>
       <c r="J9">
-        <v>1.029335350755811</v>
+        <v>0.9943725690326819</v>
       </c>
       <c r="K9">
-        <v>1.030737540158177</v>
+        <v>1.006102361186683</v>
       </c>
       <c r="L9">
-        <v>1.030381119127288</v>
+        <v>0.990568729453595</v>
       </c>
       <c r="M9">
-        <v>1.035944183200685</v>
+        <v>0.9896588258490735</v>
       </c>
       <c r="N9">
-        <v>1.013670940994407</v>
+        <v>1.001240838188928</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.021402630717923</v>
+        <v>0.9561572390036124</v>
       </c>
       <c r="D10">
-        <v>1.026070111814781</v>
+        <v>0.9847813991165909</v>
       </c>
       <c r="E10">
-        <v>1.025219226595167</v>
+        <v>0.9666351718286492</v>
       </c>
       <c r="F10">
-        <v>1.03050925897561</v>
+        <v>0.9641094501538611</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029770798453171</v>
+        <v>1.028600437297634</v>
       </c>
       <c r="J10">
-        <v>1.027836869735381</v>
+        <v>0.986225199905397</v>
       </c>
       <c r="K10">
-        <v>1.029551567955509</v>
+        <v>0.9994309762886882</v>
       </c>
       <c r="L10">
-        <v>1.028703791045571</v>
+        <v>0.9816341525806144</v>
       </c>
       <c r="M10">
-        <v>1.033974590714848</v>
+        <v>0.9791584340892463</v>
       </c>
       <c r="N10">
-        <v>1.013156410052118</v>
+        <v>0.9983827048929877</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.02051203687685</v>
+        <v>0.9509769581204176</v>
       </c>
       <c r="D11">
-        <v>1.025429277217638</v>
+        <v>0.981125079642063</v>
       </c>
       <c r="E11">
-        <v>1.024365265469818</v>
+        <v>0.9619213861733517</v>
       </c>
       <c r="F11">
-        <v>1.029528737784798</v>
+        <v>0.9586658850283547</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029583611119971</v>
+        <v>1.027183878876679</v>
       </c>
       <c r="J11">
-        <v>1.02718625266947</v>
+        <v>0.9825415871740283</v>
       </c>
       <c r="K11">
-        <v>1.029036015710176</v>
+        <v>0.996411949066012</v>
       </c>
       <c r="L11">
-        <v>1.027976043690221</v>
+        <v>0.9775990019562402</v>
       </c>
       <c r="M11">
-        <v>1.03311999834682</v>
+        <v>0.9744117958102512</v>
       </c>
       <c r="N11">
-        <v>1.0129326988663</v>
+        <v>0.997089738150025</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.020181027924973</v>
+        <v>0.9490174205432316</v>
       </c>
       <c r="D12">
-        <v>1.025191048543188</v>
+        <v>0.9797435296289545</v>
       </c>
       <c r="E12">
-        <v>1.024047940248948</v>
+        <v>0.9601401341544664</v>
       </c>
       <c r="F12">
-        <v>1.029164348036651</v>
+        <v>0.956607410553696</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029513746562614</v>
+        <v>1.02664609538402</v>
       </c>
       <c r="J12">
-        <v>1.026944315357003</v>
+        <v>0.9811479421965055</v>
       </c>
       <c r="K12">
-        <v>1.028844210409825</v>
+        <v>0.9952693807929023</v>
       </c>
       <c r="L12">
-        <v>1.027705503248165</v>
+        <v>0.9760730141303665</v>
       </c>
       <c r="M12">
-        <v>1.032802296460576</v>
+        <v>0.9726159947997418</v>
       </c>
       <c r="N12">
-        <v>1.012849463727906</v>
+        <v>0.9966004781925103</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.020252039737502</v>
+        <v>0.9494393985874169</v>
       </c>
       <c r="D13">
-        <v>1.025242158238827</v>
+        <v>0.980040968305691</v>
       </c>
       <c r="E13">
-        <v>1.024116013367368</v>
+        <v>0.9605236345626298</v>
       </c>
       <c r="F13">
-        <v>1.02924251915189</v>
+        <v>0.957050664696149</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029528747921034</v>
+        <v>1.026761990830047</v>
       </c>
       <c r="J13">
-        <v>1.026996223976782</v>
+        <v>0.9814480671723002</v>
       </c>
       <c r="K13">
-        <v>1.028885367204195</v>
+        <v>0.9955154511505377</v>
       </c>
       <c r="L13">
-        <v>1.027763545237705</v>
+        <v>0.9764016098386545</v>
       </c>
       <c r="M13">
-        <v>1.032870456827376</v>
+        <v>0.9730027256593026</v>
       </c>
       <c r="N13">
-        <v>1.012867324250622</v>
+        <v>0.9967058448696049</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020484679743449</v>
+        <v>0.950815721462941</v>
       </c>
       <c r="D14">
-        <v>1.025409589140001</v>
+        <v>0.9810113694237828</v>
       </c>
       <c r="E14">
-        <v>1.024339037867246</v>
+        <v>0.9617747815789102</v>
       </c>
       <c r="F14">
-        <v>1.029498620936139</v>
+        <v>0.9584964942672507</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02957784293227</v>
+        <v>1.027139667259757</v>
       </c>
       <c r="J14">
-        <v>1.027166259569935</v>
+        <v>0.9824269182935819</v>
       </c>
       <c r="K14">
-        <v>1.029020167288834</v>
+        <v>0.9963179457297968</v>
       </c>
       <c r="L14">
-        <v>1.027953685300524</v>
+        <v>0.977473430611176</v>
       </c>
       <c r="M14">
-        <v>1.033093742516097</v>
+        <v>0.9742640376924819</v>
       </c>
       <c r="N14">
-        <v>1.012925821463369</v>
+        <v>0.9970494834490692</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.020627989888317</v>
+        <v>0.9516589415605698</v>
       </c>
       <c r="D15">
-        <v>1.025512723022136</v>
+        <v>0.9816061033991836</v>
       </c>
       <c r="E15">
-        <v>1.024476433776188</v>
+        <v>0.9625415553053907</v>
       </c>
       <c r="F15">
-        <v>1.029656389575331</v>
+        <v>0.959382384544481</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029608047579119</v>
+        <v>1.027370802542736</v>
       </c>
       <c r="J15">
-        <v>1.0272709883233</v>
+        <v>0.983026593161073</v>
       </c>
       <c r="K15">
-        <v>1.029103181400095</v>
+        <v>0.996809533292925</v>
       </c>
       <c r="L15">
-        <v>1.028070807232188</v>
+        <v>0.9781301479371267</v>
       </c>
       <c r="M15">
-        <v>1.033231280476875</v>
+        <v>0.9750367571649688</v>
       </c>
       <c r="N15">
-        <v>1.012961845091423</v>
+        <v>0.9972599970815911</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02146170838683</v>
+        <v>0.956496248192599</v>
       </c>
       <c r="D16">
-        <v>1.026112614835761</v>
+        <v>0.9850208747576396</v>
       </c>
       <c r="E16">
-        <v>1.025275883773789</v>
+        <v>0.9669438967871204</v>
       </c>
       <c r="F16">
-        <v>1.030574307992302</v>
+        <v>0.964465779669556</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029783174574582</v>
+        <v>1.028692866617929</v>
       </c>
       <c r="J16">
-        <v>1.027880011521332</v>
+        <v>0.9864662234301156</v>
       </c>
       <c r="K16">
-        <v>1.029585740678763</v>
+        <v>0.9996284626156315</v>
       </c>
       <c r="L16">
-        <v>1.028752058253132</v>
+        <v>0.9818982682201679</v>
       </c>
       <c r="M16">
-        <v>1.034031269907131</v>
+        <v>0.9794690218089896</v>
       </c>
       <c r="N16">
-        <v>1.013171237624277</v>
+        <v>0.9984672923373359</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.021984322965797</v>
+        <v>0.9594708212878498</v>
       </c>
       <c r="D17">
-        <v>1.026488568416201</v>
+        <v>0.9871231182262725</v>
       </c>
       <c r="E17">
-        <v>1.025777138247396</v>
+        <v>0.9696540350227282</v>
       </c>
       <c r="F17">
-        <v>1.031149779520702</v>
+        <v>0.9675928202598274</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029892431821171</v>
+        <v>1.029502346209405</v>
       </c>
       <c r="J17">
-        <v>1.028261560347926</v>
+        <v>0.9885807841819125</v>
       </c>
       <c r="K17">
-        <v>1.029887894862435</v>
+        <v>1.00136075679499</v>
       </c>
       <c r="L17">
-        <v>1.029178996894456</v>
+        <v>0.9842159159518393</v>
       </c>
       <c r="M17">
-        <v>1.034532610552387</v>
+        <v>0.9821939697530864</v>
       </c>
       <c r="N17">
-        <v>1.013302337944791</v>
+        <v>0.999209319212671</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022289029144944</v>
+        <v>0.9611852290165028</v>
       </c>
       <c r="D18">
-        <v>1.026707733261433</v>
+        <v>0.9883355614909927</v>
       </c>
       <c r="E18">
-        <v>1.026069433992122</v>
+        <v>0.9712170866696035</v>
       </c>
       <c r="F18">
-        <v>1.031485331169291</v>
+        <v>0.9693955143712538</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029955945612194</v>
+        <v>1.029967607808741</v>
       </c>
       <c r="J18">
-        <v>1.028483941309394</v>
+        <v>0.9897992905274421</v>
       </c>
       <c r="K18">
-        <v>1.030063941738053</v>
+        <v>1.002358722480837</v>
       </c>
       <c r="L18">
-        <v>1.029427883060864</v>
+        <v>0.9855518617827277</v>
       </c>
       <c r="M18">
-        <v>1.034824866025907</v>
+        <v>0.983764294012698</v>
       </c>
       <c r="N18">
-        <v>1.01337871825806</v>
+        <v>0.9996368375806495</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.022392904870889</v>
+        <v>0.9617663849113273</v>
       </c>
       <c r="D19">
-        <v>1.026782442120987</v>
+        <v>0.9887466906406679</v>
       </c>
       <c r="E19">
-        <v>1.026169086285939</v>
+        <v>0.9717471101876198</v>
       </c>
       <c r="F19">
-        <v>1.031599726958179</v>
+        <v>0.9700066676405749</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029977565895747</v>
+        <v>1.030125102984721</v>
       </c>
       <c r="J19">
-        <v>1.0285597387537</v>
+        <v>0.9902123021428393</v>
       </c>
       <c r="K19">
-        <v>1.030123936264366</v>
+        <v>1.00269693627244</v>
       </c>
       <c r="L19">
-        <v>1.029512723209502</v>
+        <v>0.9860047492400299</v>
       </c>
       <c r="M19">
-        <v>1.03492448926563</v>
+        <v>0.9842965711810846</v>
       </c>
       <c r="N19">
-        <v>1.013404747033507</v>
+        <v>0.9997817316558015</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.021928264450479</v>
+        <v>0.9591538295668417</v>
       </c>
       <c r="D20">
-        <v>1.026448244850862</v>
+        <v>0.9868990029610261</v>
       </c>
       <c r="E20">
-        <v>1.025723366439714</v>
+        <v>0.9693651131693223</v>
       </c>
       <c r="F20">
-        <v>1.031088048419837</v>
+        <v>0.9672595378018406</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029880731709211</v>
+        <v>1.029416215185126</v>
       </c>
       <c r="J20">
-        <v>1.028220641385284</v>
+        <v>0.9883554646602758</v>
       </c>
       <c r="K20">
-        <v>1.029855496723666</v>
+        <v>1.001176196935328</v>
       </c>
       <c r="L20">
-        <v>1.029133204923984</v>
+        <v>0.9839689135010706</v>
       </c>
       <c r="M20">
-        <v>1.03447883887178</v>
+        <v>0.9819036015424418</v>
       </c>
       <c r="N20">
-        <v>1.013288281262304</v>
+        <v>0.9991302588888802</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.020416178703898</v>
+        <v>0.9504114298174868</v>
       </c>
       <c r="D21">
-        <v>1.025360290297604</v>
+        <v>0.9807262727962858</v>
       </c>
       <c r="E21">
-        <v>1.024273366228967</v>
+        <v>0.9614072088060993</v>
       </c>
       <c r="F21">
-        <v>1.029423210381289</v>
+        <v>0.9580717672069189</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029563394929127</v>
+        <v>1.027028778261027</v>
       </c>
       <c r="J21">
-        <v>1.027116195788401</v>
+        <v>0.9821393890268235</v>
       </c>
       <c r="K21">
-        <v>1.028980480501613</v>
+        <v>0.9960822291733075</v>
       </c>
       <c r="L21">
-        <v>1.027897699972962</v>
+        <v>0.9771585742546853</v>
       </c>
       <c r="M21">
-        <v>1.033027997898366</v>
+        <v>0.9738935380650131</v>
       </c>
       <c r="N21">
-        <v>1.012908599334989</v>
+        <v>0.9969485445765853</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.019464294442566</v>
+        <v>0.94470848430965</v>
       </c>
       <c r="D22">
-        <v>1.024675125130621</v>
+        <v>0.9767086172419706</v>
       </c>
       <c r="E22">
-        <v>1.023360961922453</v>
+        <v>0.956226762054548</v>
       </c>
       <c r="F22">
-        <v>1.028375412836066</v>
+        <v>0.9520821222092001</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029361934720495</v>
+        <v>1.025460064817324</v>
       </c>
       <c r="J22">
-        <v>1.026420227692544</v>
+        <v>0.978083043465355</v>
       </c>
       <c r="K22">
-        <v>1.02842854975687</v>
+        <v>0.9927560455041902</v>
       </c>
       <c r="L22">
-        <v>1.027119598495176</v>
+        <v>0.9727182784565197</v>
       </c>
       <c r="M22">
-        <v>1.032114241730421</v>
+        <v>0.9686666032452891</v>
       </c>
       <c r="N22">
-        <v>1.012669074311691</v>
+        <v>0.9955243778116378</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.019969019721255</v>
+        <v>0.9477523479168554</v>
       </c>
       <c r="D23">
-        <v>1.025038451814139</v>
+        <v>0.9788520610183616</v>
       </c>
       <c r="E23">
-        <v>1.023844715679378</v>
+        <v>0.9589906941643815</v>
       </c>
       <c r="F23">
-        <v>1.028930971713094</v>
+        <v>0.9552786489342715</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029468916727118</v>
+        <v>1.026298368778347</v>
       </c>
       <c r="J23">
-        <v>1.026789322698519</v>
+        <v>0.9802481520420792</v>
       </c>
       <c r="K23">
-        <v>1.028721307781661</v>
+        <v>0.9945316005770508</v>
       </c>
       <c r="L23">
-        <v>1.027532208589167</v>
+        <v>0.9750879634893709</v>
       </c>
       <c r="M23">
-        <v>1.032598790538993</v>
+        <v>0.9714565512075634</v>
       </c>
       <c r="N23">
-        <v>1.012796127678123</v>
+        <v>0.9962845734515635</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.021953595269682</v>
+        <v>0.9592971279566752</v>
       </c>
       <c r="D24">
-        <v>1.026466465712765</v>
+        <v>0.9870003133912658</v>
       </c>
       <c r="E24">
-        <v>1.025747663844249</v>
+        <v>0.9694957191154414</v>
       </c>
       <c r="F24">
-        <v>1.031115942390134</v>
+        <v>0.9674101992597582</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02988601914769</v>
+        <v>1.029455155334246</v>
       </c>
       <c r="J24">
-        <v>1.028239131428248</v>
+        <v>0.9884573226933546</v>
       </c>
       <c r="K24">
-        <v>1.02987013664898</v>
+        <v>1.00125962995452</v>
       </c>
       <c r="L24">
-        <v>1.02915389677643</v>
+        <v>0.9840805722495231</v>
       </c>
       <c r="M24">
-        <v>1.034503136498494</v>
+        <v>0.9820348652406341</v>
       </c>
       <c r="N24">
-        <v>1.013294633144789</v>
+        <v>0.9991659991541688</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024251659800803</v>
+        <v>0.9718932707974888</v>
       </c>
       <c r="D25">
-        <v>1.028118800783787</v>
+        <v>0.9959208527790419</v>
       </c>
       <c r="E25">
-        <v>1.027952905479923</v>
+        <v>0.9809972686139614</v>
       </c>
       <c r="F25">
-        <v>1.033647142116169</v>
+        <v>0.9806622491100039</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030361648579983</v>
+        <v>1.032850039206613</v>
       </c>
       <c r="J25">
-        <v>1.029914898330228</v>
+        <v>0.9974050290484837</v>
       </c>
       <c r="K25">
-        <v>1.031195667189274</v>
+        <v>1.008582824030036</v>
       </c>
       <c r="L25">
-        <v>1.031030301898483</v>
+        <v>0.9938979188598034</v>
       </c>
       <c r="M25">
-        <v>1.036706452626415</v>
+        <v>0.9935683645897136</v>
       </c>
       <c r="N25">
-        <v>1.013869661983548</v>
+        <v>1.002303847047272</v>
       </c>
     </row>
   </sheetData>
